--- a/generated_questions.xlsx
+++ b/generated_questions.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,7 +492,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>question: What did the Renaissance bring about?</t>
+          <t>question: What did the renaissance of the 14th to 17th centuries mean?</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -509,10 +509,554 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>question: What kind of culture did the Renaissance bring about?</t>
+          <t>question: What did the renaissance of the 14th to 17th centuries produce?</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
+        <is>
+          <t>hard</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Photosynthesis is the process by which plants convert sunlight into chemical energy, producing glucose and oxygen from carbon dioxide and water.</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>question: What is the basic process of photosynthesis?</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>easy</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Photosynthesis is the process by which plants convert sunlight into chemical energy, producing glucose and oxygen from carbon dioxide and water.</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>question: What is the process by which plants convert sunlight into energy?</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>easy</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>The Renaissance was a period of cultural rebirth in Europe from the 14th to 17th centuries, marked by renewed interest in classical art and learning.</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>question: The Renaissance was marked by renewed interest in classical art and learning.</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>hard</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>The Renaissance was a period of cultural rebirth in Europe from the 14th to 17th centuries, marked by renewed interest in classical art and learning.</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>question: The Renaissance was marked by renewed interest in classical art and learning?</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>hard</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Photosynthesis is the process by which plants convert sunlight into chemical energy, producing glucose and oxygen from carbon dioxide and water.</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>question: What is the basic process of photosynthesis?</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>easy</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Photosynthesis is the process by which plants convert sunlight into chemical energy, producing glucose and oxygen from carbon dioxide and water.</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>question: What is the process by which plants convert sunlight into energy?</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>easy</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>The Renaissance was a period of cultural rebirth in Europe from the 14th to 17th centuries, marked by renewed interest in classical art and learning.</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>question: What was the era of the Renaissance?</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>hard</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>The Renaissance was a period of cultural rebirth in Europe from the 14th to 17th centuries, marked by renewed interest in classical art and learning.</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>question: What kind of culture was revived during the Renaissance?</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>hard</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Photosynthesis is the process by which plants convert sunlight into chemical energy, producing glucose and oxygen from carbon dioxide and water.</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>question: What is the basic process of photosynthesis?</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>easy</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Photosynthesis is the process by which plants convert sunlight into chemical energy, producing glucose and oxygen from carbon dioxide and water.</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>question: What is the basic process by which plants convert sunlight into energy?</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>easy</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>The Renaissance was a period of cultural rebirth in Europe from the 14th to 17th centuries, marked by renewed interest in classical art and learning.</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>question: What was the result of the Renaissance?</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>hard</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>The Renaissance was a period of cultural rebirth in Europe from the 14th to 17th centuries, marked by renewed interest in classical art and learning.</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>question: What did the Renaissance period bring about?</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>hard</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Photosynthesis is the process by which plants convert sunlight into chemical energy, producing glucose and oxygen from carbon dioxide and water.</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>question: What is the basic process of photosynthesis?</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>easy</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Photosynthesis is the process by which plants convert sunlight into chemical energy, producing glucose and oxygen from carbon dioxide and water.</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>question: What is the process by which plants convert sunlight into energy?</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>easy</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>The Renaissance was a period of cultural rebirth in Europe from the 14th to 17th centuries, marked by renewed interest in classical art and learning.</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>question: What was the nature of the Renaissance?</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>hard</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>The Renaissance was a period of cultural rebirth in Europe from the 14th to 17th centuries, marked by renewed interest in classical art and learning.</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>question: What was the nature of the Renaissance period?</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>hard</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Photosynthesis is the process by which plants convert sunlight into chemical energy, producing glucose and oxygen from carbon dioxide and water.</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>question: What is the basic process of photosynthesis?</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>easy</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Photosynthesis is the process by which plants convert sunlight into chemical energy, producing glucose and oxygen from carbon dioxide and water.</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>question: What is the process by which plants convert sunlight into energy?</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>easy</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>The Renaissance was a period of cultural rebirth in Europe from the 14th to 17th centuries, marked by renewed interest in classical art and learning.</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>question: The Renaissance was a period of cultural rebirth in Europe in which century?</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>hard</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>The Renaissance was a period of cultural rebirth in Europe from the 14th to 17th centuries, marked by renewed interest in classical art and learning.</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>question: The Renaissance was a period of cultural rebirth in Europe in what way?</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>hard</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Photosynthesis is the process by which plants convert sunlight into chemical energy, producing glucose and oxygen from carbon dioxide and water.</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>question: What is the basic process of photosynthesis?</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>easy</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Photosynthesis is the process by which plants convert sunlight into chemical energy, producing glucose and oxygen from carbon dioxide and water.</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>question: What type of energy does photosynthesis produce?</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>easy</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>The Renaissance was a period of cultural rebirth in Europe from the 14th to 17th centuries, marked by renewed interest in classical art and learning.</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>question: What did the Renaissance bring about?</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>hard</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>The Renaissance was a period of cultural rebirth in Europe from the 14th to 17th centuries, marked by renewed interest in classical art and learning.</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>question: What type of culture did the Renaissance bring?</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>hard</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Photosynthesis is the process by which plants convert sunlight into chemical energy, producing glucose and oxygen from carbon dioxide and water.</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>question: What is the basic process of photosynthesis?</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>easy</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Photosynthesis is the process by which plants convert sunlight into chemical energy, producing glucose and oxygen from carbon dioxide and water.</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>question: What is the basic process by which plants convert sunlight into energy?</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>easy</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>The Renaissance was a period of cultural rebirth in Europe from the 14th to 17th centuries, marked by renewed interest in classical art and learning.</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>question: What type of art was revived during the Renaissance?</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>hard</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>The Renaissance was a period of cultural rebirth in Europe from the 14th to 17th centuries, marked by renewed interest in classical art and learning.</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>question: What type of art did the Renaissance bring about?</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>hard</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Photosynthesis is the process by which plants convert sunlight into chemical energy, producing glucose and oxygen from carbon dioxide and water.</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>question: What is the basic process of photosynthesis?</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>easy</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Photosynthesis is the process by which plants convert sunlight into chemical energy, producing glucose and oxygen from carbon dioxide and water.</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>question: What is the basic process by which plants convert sunlight into energy?</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>easy</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>The Renaissance was a period of cultural rebirth in Europe from the 14th to 17th centuries, marked by renewed interest in classical art and learning.</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>question: What type of art and learning did the Renaissance bring about?</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>hard</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>The Renaissance was a period of cultural rebirth in Europe from the 14th to 17th centuries, marked by renewed interest in classical art and learning.</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>question: What type of art and learning was renewed during the Renaissance?</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
         <is>
           <t>hard</t>
         </is>

--- a/generated_questions.xlsx
+++ b/generated_questions.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,92 +453,92 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Photosynthesis is the process by which plants convert sunlight into chemical energy, producing glucose and oxygen from carbon dioxide and water.</t>
+          <t>Photosynthesis is the process by which plants convert sunlight into chemical energy, producing glucose and oxygen from carbon dioxide and water. The Renaissance was a period of cultural rebirth in Europe from the 14th to 17th centuries, marked by renewed interest in classical art and learning.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>question: What is the basic process of photosynthesis?</t>
+          <t>question: What is the process by which plants convert sunlight into chemical energy?</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>easy</t>
+          <t>medium</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Photosynthesis is the process by which plants convert sunlight into chemical energy, producing glucose and oxygen from carbon dioxide and water.</t>
+          <t>Photosynthesis is the process by which plants convert sunlight into chemical energy, producing glucose and oxygen from carbon dioxide and water. The Renaissance was a period of cultural rebirth in Europe from the 14th to 17th centuries, marked by renewed interest in classical art and learning.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>question: What is the process by which plants convert sunlight into energy?</t>
+          <t>question: What is the process by which plants convert sunlight to chemical energy?</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>easy</t>
+          <t>medium</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>The Renaissance was a period of cultural rebirth in Europe from the 14th to 17th centuries, marked by renewed interest in classical art and learning.</t>
+          <t>Photosynthesis is the process by which plants convert sunlight into chemical energy, producing glucose and oxygen from carbon dioxide and water. The Renaissance was a period of cultural rebirth in Europe from the 14th to 17th centuries, marked by renewed interest in classical art and learning.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>question: What did the renaissance of the 14th to 17th centuries mean?</t>
+          <t>question: What is the process by which plants convert sunlight into chemical energy called?</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>medium</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>The Renaissance was a period of cultural rebirth in Europe from the 14th to 17th centuries, marked by renewed interest in classical art and learning.</t>
+          <t>Photosynthesis is the process by which plants convert sunlight into chemical energy, producing glucose and oxygen from carbon dioxide and water. The Renaissance was a period of cultural rebirth in Europe from the 14th to 17th centuries, marked by renewed interest in classical art and learning.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>question: What did the renaissance of the 14th to 17th centuries produce?</t>
+          <t>question: What is the process by which plants turn sunlight into chemical energy?</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>medium</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Photosynthesis is the process by which plants convert sunlight into chemical energy, producing glucose and oxygen from carbon dioxide and water.</t>
+          <t>Photosynthesis is the process by which plants convert sunlight into chemical energy, producing glucose and oxygen from carbon dioxide and water. The Renaissance was a period of cultural rebirth in Europe from the 14th to 17th centuries, marked by renewed interest in classical art and learning.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>question: What is the basic process of photosynthesis?</t>
+          <t>question: What is the process by which plants convert sunlight into energy?</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>easy</t>
+          <t>medium</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Photosynthesis is the process by which plants convert sunlight into chemical energy, producing glucose and oxygen from carbon dioxide and water.</t>
+          <t>Photosynthesis is the process by which plants convert sunlight into chemical energy, producing glucose and oxygen from carbon dioxide and water. The Renaissance was a period of cultural rebirth in Europe from the 14th to 17th centuries, marked by renewed interest in classical art and learning.</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -548,517 +548,75 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>easy</t>
+          <t>medium</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>The Renaissance was a period of cultural rebirth in Europe from the 14th to 17th centuries, marked by renewed interest in classical art and learning.</t>
+          <t>Photosynthesis is the process by which plants convert sunlight into chemical energy, producing glucose and oxygen from carbon dioxide and water. The Renaissance was a period of cultural rebirth in Europe from the 14th to 17th centuries, marked by renewed interest in classical art and learning.</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>question: The Renaissance was marked by renewed interest in classical art and learning.</t>
+          <t>question: What does photosynthesis do to produce glucose and oxygen?</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>medium</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>The Renaissance was a period of cultural rebirth in Europe from the 14th to 17th centuries, marked by renewed interest in classical art and learning.</t>
+          <t>Photosynthesis is the process by which plants convert sunlight into chemical energy, producing glucose and oxygen from carbon dioxide and water. The Renaissance was a period of cultural rebirth in Europe from the 14th to 17th centuries, marked by renewed interest in classical art and learning.</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>question: The Renaissance was marked by renewed interest in classical art and learning?</t>
+          <t>question: What does photosynthesis produce in plants?</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>medium</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Photosynthesis is the process by which plants convert sunlight into chemical energy, producing glucose and oxygen from carbon dioxide and water.</t>
+          <t>Photosynthesis is the process by which plants convert sunlight into chemical energy, producing glucose and oxygen from carbon dioxide and water. The Renaissance was a period of cultural rebirth in Europe from the 14th to 17th centuries, marked by renewed interest in classical art and learning.</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>question: What is the basic process of photosynthesis?</t>
+          <t>question: What does photosynthesis do to plants?</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>easy</t>
+          <t>medium</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Photosynthesis is the process by which plants convert sunlight into chemical energy, producing glucose and oxygen from carbon dioxide and water.</t>
+          <t>Photosynthesis is the process by which plants convert sunlight into chemical energy, producing glucose and oxygen from carbon dioxide and water. The Renaissance was a period of cultural rebirth in Europe from the 14th to 17th centuries, marked by renewed interest in classical art and learning.</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>question: What is the process by which plants convert sunlight into energy?</t>
+          <t>question: What does photosynthesis do to produce glucose?</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>easy</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>The Renaissance was a period of cultural rebirth in Europe from the 14th to 17th centuries, marked by renewed interest in classical art and learning.</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>question: What was the era of the Renaissance?</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>hard</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>The Renaissance was a period of cultural rebirth in Europe from the 14th to 17th centuries, marked by renewed interest in classical art and learning.</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>question: What kind of culture was revived during the Renaissance?</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>hard</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Photosynthesis is the process by which plants convert sunlight into chemical energy, producing glucose and oxygen from carbon dioxide and water.</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>question: What is the basic process of photosynthesis?</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>easy</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Photosynthesis is the process by which plants convert sunlight into chemical energy, producing glucose and oxygen from carbon dioxide and water.</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>question: What is the basic process by which plants convert sunlight into energy?</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>easy</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>The Renaissance was a period of cultural rebirth in Europe from the 14th to 17th centuries, marked by renewed interest in classical art and learning.</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>question: What was the result of the Renaissance?</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>hard</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>The Renaissance was a period of cultural rebirth in Europe from the 14th to 17th centuries, marked by renewed interest in classical art and learning.</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>question: What did the Renaissance period bring about?</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>hard</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Photosynthesis is the process by which plants convert sunlight into chemical energy, producing glucose and oxygen from carbon dioxide and water.</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>question: What is the basic process of photosynthesis?</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>easy</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Photosynthesis is the process by which plants convert sunlight into chemical energy, producing glucose and oxygen from carbon dioxide and water.</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>question: What is the process by which plants convert sunlight into energy?</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>easy</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>The Renaissance was a period of cultural rebirth in Europe from the 14th to 17th centuries, marked by renewed interest in classical art and learning.</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>question: What was the nature of the Renaissance?</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>hard</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>The Renaissance was a period of cultural rebirth in Europe from the 14th to 17th centuries, marked by renewed interest in classical art and learning.</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>question: What was the nature of the Renaissance period?</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>hard</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Photosynthesis is the process by which plants convert sunlight into chemical energy, producing glucose and oxygen from carbon dioxide and water.</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>question: What is the basic process of photosynthesis?</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>easy</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Photosynthesis is the process by which plants convert sunlight into chemical energy, producing glucose and oxygen from carbon dioxide and water.</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>question: What is the process by which plants convert sunlight into energy?</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>easy</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>The Renaissance was a period of cultural rebirth in Europe from the 14th to 17th centuries, marked by renewed interest in classical art and learning.</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>question: The Renaissance was a period of cultural rebirth in Europe in which century?</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>hard</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>The Renaissance was a period of cultural rebirth in Europe from the 14th to 17th centuries, marked by renewed interest in classical art and learning.</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>question: The Renaissance was a period of cultural rebirth in Europe in what way?</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>hard</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Photosynthesis is the process by which plants convert sunlight into chemical energy, producing glucose and oxygen from carbon dioxide and water.</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>question: What is the basic process of photosynthesis?</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>easy</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Photosynthesis is the process by which plants convert sunlight into chemical energy, producing glucose and oxygen from carbon dioxide and water.</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>question: What type of energy does photosynthesis produce?</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>easy</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>The Renaissance was a period of cultural rebirth in Europe from the 14th to 17th centuries, marked by renewed interest in classical art and learning.</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>question: What did the Renaissance bring about?</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>hard</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>The Renaissance was a period of cultural rebirth in Europe from the 14th to 17th centuries, marked by renewed interest in classical art and learning.</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>question: What type of culture did the Renaissance bring?</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>hard</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Photosynthesis is the process by which plants convert sunlight into chemical energy, producing glucose and oxygen from carbon dioxide and water.</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>question: What is the basic process of photosynthesis?</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>easy</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Photosynthesis is the process by which plants convert sunlight into chemical energy, producing glucose and oxygen from carbon dioxide and water.</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>question: What is the basic process by which plants convert sunlight into energy?</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>easy</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>The Renaissance was a period of cultural rebirth in Europe from the 14th to 17th centuries, marked by renewed interest in classical art and learning.</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>question: What type of art was revived during the Renaissance?</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>hard</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>The Renaissance was a period of cultural rebirth in Europe from the 14th to 17th centuries, marked by renewed interest in classical art and learning.</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>question: What type of art did the Renaissance bring about?</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>hard</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Photosynthesis is the process by which plants convert sunlight into chemical energy, producing glucose and oxygen from carbon dioxide and water.</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>question: What is the basic process of photosynthesis?</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>easy</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Photosynthesis is the process by which plants convert sunlight into chemical energy, producing glucose and oxygen from carbon dioxide and water.</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>question: What is the basic process by which plants convert sunlight into energy?</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>easy</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>The Renaissance was a period of cultural rebirth in Europe from the 14th to 17th centuries, marked by renewed interest in classical art and learning.</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>question: What type of art and learning did the Renaissance bring about?</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>hard</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>The Renaissance was a period of cultural rebirth in Europe from the 14th to 17th centuries, marked by renewed interest in classical art and learning.</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>question: What type of art and learning was renewed during the Renaissance?</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>hard</t>
+          <t>medium</t>
         </is>
       </c>
     </row>

--- a/generated_questions.xlsx
+++ b/generated_questions.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,12 +453,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Photosynthesis is the process by which plants convert sunlight into chemical energy, producing glucose and oxygen from carbon dioxide and water. The Renaissance was a period of cultural rebirth in Europe from the 14th to 17th centuries, marked by renewed interest in classical art and learning.</t>
+          <t>The water cycle is a continuous process by which water moves through the Earth's atmosphere, land, and oceans. It consists of various stages such as evaporation, condensation, precipitation, and collection. The sun plays a crucial role by providing energy for evaporation, turning water from lakes, rivers, and oceans into water vapor. This vapor rises into the atmosphere, cools, and condenses into tiny droplets that form clouds. When these droplets become heavy enough, they fall back to Earth as precipitation in the form of rain, snow, sleet, or hail. The water then flows back into bodies of water, completing the cycle. This natural system is essential for maintaining life and regulating climate.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>question: What is the process by which plants convert sunlight into chemical energy?</t>
+          <t>question: What is the water cycle's final stage?</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -470,12 +470,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Photosynthesis is the process by which plants convert sunlight into chemical energy, producing glucose and oxygen from carbon dioxide and water. The Renaissance was a period of cultural rebirth in Europe from the 14th to 17th centuries, marked by renewed interest in classical art and learning.</t>
+          <t>The water cycle is a continuous process by which water moves through the Earth's atmosphere, land, and oceans. It consists of various stages such as evaporation, condensation, precipitation, and collection. The sun plays a crucial role by providing energy for evaporation, turning water from lakes, rivers, and oceans into water vapor. This vapor rises into the atmosphere, cools, and condenses into tiny droplets that form clouds. When these droplets become heavy enough, they fall back to Earth as precipitation in the form of rain, snow, sleet, or hail. The water then flows back into bodies of water, completing the cycle. This natural system is essential for maintaining life and regulating climate.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>question: What is the process by which plants convert sunlight to chemical energy?</t>
+          <t>question: What type of water cycle is the sun responsible for?</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,12 +487,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Photosynthesis is the process by which plants convert sunlight into chemical energy, producing glucose and oxygen from carbon dioxide and water. The Renaissance was a period of cultural rebirth in Europe from the 14th to 17th centuries, marked by renewed interest in classical art and learning.</t>
+          <t>The water cycle is a continuous process by which water moves through the Earth's atmosphere, land, and oceans. It consists of various stages such as evaporation, condensation, precipitation, and collection. The sun plays a crucial role by providing energy for evaporation, turning water from lakes, rivers, and oceans into water vapor. This vapor rises into the atmosphere, cools, and condenses into tiny droplets that form clouds. When these droplets become heavy enough, they fall back to Earth as precipitation in the form of rain, snow, sleet, or hail. The water then flows back into bodies of water, completing the cycle. This natural system is essential for maintaining life and regulating climate.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>question: What is the process by which plants convert sunlight into chemical energy called?</t>
+          <t>question: What is the water cycle's intermediate stage?</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -504,12 +504,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Photosynthesis is the process by which plants convert sunlight into chemical energy, producing glucose and oxygen from carbon dioxide and water. The Renaissance was a period of cultural rebirth in Europe from the 14th to 17th centuries, marked by renewed interest in classical art and learning.</t>
+          <t>The water cycle is a continuous process by which water moves through the Earth's atmosphere, land, and oceans. It consists of various stages such as evaporation, condensation, precipitation, and collection. The sun plays a crucial role by providing energy for evaporation, turning water from lakes, rivers, and oceans into water vapor. This vapor rises into the atmosphere, cools, and condenses into tiny droplets that form clouds. When these droplets become heavy enough, they fall back to Earth as precipitation in the form of rain, snow, sleet, or hail. The water then flows back into bodies of water, completing the cycle. This natural system is essential for maintaining life and regulating climate.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>question: What is the process by which plants turn sunlight into chemical energy?</t>
+          <t>question: What type of water cycle is the sun responsible for producing?</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -521,100 +521,15 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Photosynthesis is the process by which plants convert sunlight into chemical energy, producing glucose and oxygen from carbon dioxide and water. The Renaissance was a period of cultural rebirth in Europe from the 14th to 17th centuries, marked by renewed interest in classical art and learning.</t>
+          <t>The water cycle is a continuous process by which water moves through the Earth's atmosphere, land, and oceans. It consists of various stages such as evaporation, condensation, precipitation, and collection. The sun plays a crucial role by providing energy for evaporation, turning water from lakes, rivers, and oceans into water vapor. This vapor rises into the atmosphere, cools, and condenses into tiny droplets that form clouds. When these droplets become heavy enough, they fall back to Earth as precipitation in the form of rain, snow, sleet, or hail. The water then flows back into bodies of water, completing the cycle. This natural system is essential for maintaining life and regulating climate.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>question: What is the process by which plants convert sunlight into energy?</t>
+          <t>question: The water cycle is a continuous process of what?</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
-        <is>
-          <t>medium</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Photosynthesis is the process by which plants convert sunlight into chemical energy, producing glucose and oxygen from carbon dioxide and water. The Renaissance was a period of cultural rebirth in Europe from the 14th to 17th centuries, marked by renewed interest in classical art and learning.</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>question: What is the process by which plants convert sunlight into energy?</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>medium</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Photosynthesis is the process by which plants convert sunlight into chemical energy, producing glucose and oxygen from carbon dioxide and water. The Renaissance was a period of cultural rebirth in Europe from the 14th to 17th centuries, marked by renewed interest in classical art and learning.</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>question: What does photosynthesis do to produce glucose and oxygen?</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>medium</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Photosynthesis is the process by which plants convert sunlight into chemical energy, producing glucose and oxygen from carbon dioxide and water. The Renaissance was a period of cultural rebirth in Europe from the 14th to 17th centuries, marked by renewed interest in classical art and learning.</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>question: What does photosynthesis produce in plants?</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>medium</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Photosynthesis is the process by which plants convert sunlight into chemical energy, producing glucose and oxygen from carbon dioxide and water. The Renaissance was a period of cultural rebirth in Europe from the 14th to 17th centuries, marked by renewed interest in classical art and learning.</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>question: What does photosynthesis do to plants?</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>medium</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Photosynthesis is the process by which plants convert sunlight into chemical energy, producing glucose and oxygen from carbon dioxide and water. The Renaissance was a period of cultural rebirth in Europe from the 14th to 17th centuries, marked by renewed interest in classical art and learning.</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>question: What does photosynthesis do to produce glucose?</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
